--- a/в бланки заводов/ПОКОМ КИ/pokom_ki/чистый бланк/Бланк КИ  клиент ООО НВ на отгрузку с 17.11.2025 (Мел.).xlsx
+++ b/в бланки заводов/ПОКОМ КИ/pokom_ki/чистый бланк/Бланк КИ  клиент ООО НВ на отгрузку с 17.11.2025 (Мел.).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ КИ\pokom_ki\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69789DEB-EDFE-478D-ACD4-74698BA3DE50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368D9C26-4BF0-42FB-A74D-AA721D9597F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Setting" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Бланк заказа'!$A$18:$AF$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Бланк заказа'!$A$18:$AF$494</definedName>
     <definedName name="CodeProxySet">Setting!$E$9:$E$10</definedName>
     <definedName name="Comment">'Бланк заказа'!$H$5</definedName>
     <definedName name="ContactInformation">'Бланк заказа'!$A$12</definedName>
@@ -11836,7 +11836,7 @@
   <dimension ref="A1:BP499"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA22" sqref="AA22"/>
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -46898,7 +46898,7 @@
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="XskFqzYDNU4qfJ1OE3az44MvOzLIBZoSCMOY78Nb/BwVnnRFZaqYedOUi+TA3oQDRtXY0OM7GPywfbOQGIUE8A==" saltValue="96BO2lME/ZGUElrMuxZzxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A18:AF18" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A18:AF494" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="15" showButton="0"/>
     <filterColumn colId="16" showButton="0"/>
